--- a/biology/Zoologie/Agriopis_leucophaearia/Agriopis_leucophaearia.xlsx
+++ b/biology/Zoologie/Agriopis_leucophaearia/Agriopis_leucophaearia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agriopis leucophaearia, l’Hibernie grisâtre, est une espèce de lépidoptères (papillons) de la famille des Geometridae[1], présent en Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agriopis leucophaearia, l’Hibernie grisâtre, est une espèce de lépidoptères (papillons) de la famille des Geometridae, présent en Europe.
 L'imago femelle est dépourvu d'ailes.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vernaculaire de cette espèce est en rapport avec les mœurs hivernales de l'adulte. En Angleterre, l'espèce prend le nom de Spring Usher.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago : le dimorphisme sexuel est très marqué chez cette espèce. Le mâle a une envergure de 10-30 mm. Le fond de ses ailes est généralement blanchâtre. Les ailes du dessus sont nuancées de brun roux à la base et à la pointe, avec des lignes noires discontinues associées à des zones striées de noir. Les ailes du dessous sont pointillées de noir. Certains individus peuvent être plus sombres (colorations brunes et noires). La femelle est aptère[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imago : le dimorphisme sexuel est très marqué chez cette espèce. Le mâle a une envergure de 10-30 mm. Le fond de ses ailes est généralement blanchâtre. Les ailes du dessus sont nuancées de brun roux à la base et à la pointe, avec des lignes noires discontinues associées à des zones striées de noir. Les ailes du dessous sont pointillées de noir. Certains individus peuvent être plus sombres (colorations brunes et noires). La femelle est aptère.
 Chenille : la chenille verte à lignes jaunâtres, est visible au printemps, se nourrit sur divers arbres et arbustes (Quercus, Betula, Rosa).
 			MHNT ♂
 			♂ △
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femelles aptères demeurent sur le tronc de l'arbre qui les a vues naître et attirent les mâles par des phéromones.
 En France, les mâles volent de janvier à mars, l'espèce est univoltine.
